--- a/testing.xlsx
+++ b/testing.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pranika/Desktop/SJSU-SEM2/CMPE255/Lab1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD6885F0-6701-854F-ABE8-05717A492EB7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5536377A-5D8B-3349-AA2F-297670CCF6D1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{CDCBBEF7-3FBE-2340-9881-6059F80D3CAA}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="1" xr2:uid="{CDCBBEF7-3FBE-2340-9881-6059F80D3CAA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32732" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32736" uniqueCount="35">
   <si>
     <t>Conditions</t>
   </si>
@@ -118,6 +119,18 @@
   </si>
   <si>
     <t>Right Subtree key &lt; Left Sub Tree Keys</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>Z</t>
+  </si>
+  <si>
+    <t>Test Case</t>
   </si>
 </sst>
 </file>
@@ -522,7 +535,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F288FF7A-F3EC-084B-8425-872CF2BED4EE}">
   <dimension ref="A2:XFD33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
@@ -98800,4 +98813,33 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94CB6EC9-E67E-5345-94BA-C540DADB3510}">
+  <dimension ref="A3:D3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12:E13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>